--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Epo-Ephb4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Epo-Ephb4.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1113566666666667</v>
+        <v>0.05285566666666667</v>
       </c>
       <c r="H2">
-        <v>0.33407</v>
+        <v>0.158567</v>
       </c>
       <c r="I2">
-        <v>0.7183683124032341</v>
+        <v>0.5476571215423245</v>
       </c>
       <c r="J2">
-        <v>0.7183683124032342</v>
+        <v>0.5476571215423245</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.00372766666667</v>
+        <v>25.11140833333333</v>
       </c>
       <c r="N2">
-        <v>51.011183</v>
+        <v>75.334225</v>
       </c>
       <c r="O2">
-        <v>0.6620200065567142</v>
+        <v>0.7431105026796001</v>
       </c>
       <c r="P2">
-        <v>0.6620200065567141</v>
+        <v>0.7431105026796001</v>
       </c>
       <c r="Q2">
-        <v>1.893478433867778</v>
+        <v>1.327280228397222</v>
       </c>
       <c r="R2">
-        <v>17.04130590481</v>
+        <v>11.945522055575</v>
       </c>
       <c r="S2">
-        <v>0.4755741948873248</v>
+        <v>0.4069697588853796</v>
       </c>
       <c r="T2">
-        <v>0.4755741948873247</v>
+        <v>0.4069697588853796</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1113566666666667</v>
+        <v>0.05285566666666667</v>
       </c>
       <c r="H3">
-        <v>0.33407</v>
+        <v>0.158567</v>
       </c>
       <c r="I3">
-        <v>0.7183683124032341</v>
+        <v>0.5476571215423245</v>
       </c>
       <c r="J3">
-        <v>0.7183683124032342</v>
+        <v>0.5476571215423245</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>16.181434</v>
       </c>
       <c r="O3">
-        <v>0.2100016587103467</v>
+        <v>0.1596166092346045</v>
       </c>
       <c r="P3">
-        <v>0.2100016587103467</v>
+        <v>0.1596166092346045</v>
       </c>
       <c r="Q3">
-        <v>0.6006368507088888</v>
+        <v>0.2850934938975556</v>
       </c>
       <c r="R3">
-        <v>5.40573165638</v>
+        <v>2.565841445078</v>
       </c>
       <c r="S3">
-        <v>0.1508585371696316</v>
+        <v>0.08741517276376949</v>
       </c>
       <c r="T3">
-        <v>0.1508585371696317</v>
+        <v>0.08741517276376951</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1113566666666667</v>
+        <v>0.05285566666666667</v>
       </c>
       <c r="H4">
-        <v>0.33407</v>
+        <v>0.158567</v>
       </c>
       <c r="I4">
-        <v>0.7183683124032341</v>
+        <v>0.5476571215423245</v>
       </c>
       <c r="J4">
-        <v>0.7183683124032342</v>
+        <v>0.5476571215423245</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,25 +679,25 @@
         <v>3.287074</v>
       </c>
       <c r="N4">
-        <v>9.861222000000001</v>
+        <v>9.861222</v>
       </c>
       <c r="O4">
-        <v>0.1279783347329392</v>
+        <v>0.09727288808579543</v>
       </c>
       <c r="P4">
-        <v>0.1279783347329392</v>
+        <v>0.09727288808579541</v>
       </c>
       <c r="Q4">
-        <v>0.3660376037266667</v>
+        <v>0.1737404876526667</v>
       </c>
       <c r="R4">
-        <v>3.29433843354</v>
+        <v>1.563664388874</v>
       </c>
       <c r="S4">
-        <v>0.09193558034627769</v>
+        <v>0.05327218989317539</v>
       </c>
       <c r="T4">
-        <v>0.0919355803462777</v>
+        <v>0.05327218989317539</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.090014</v>
       </c>
       <c r="I5">
-        <v>0.1935618441424393</v>
+        <v>0.3108894545429426</v>
       </c>
       <c r="J5">
-        <v>0.1935618441424394</v>
+        <v>0.3108894545429427</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.00372766666667</v>
+        <v>25.11140833333333</v>
       </c>
       <c r="N5">
-        <v>51.011183</v>
+        <v>75.334225</v>
       </c>
       <c r="O5">
-        <v>0.6620200065567142</v>
+        <v>0.7431105026796001</v>
       </c>
       <c r="P5">
-        <v>0.6620200065567141</v>
+        <v>0.7431105026796001</v>
       </c>
       <c r="Q5">
-        <v>0.5101911807291111</v>
+        <v>0.7534594365722221</v>
       </c>
       <c r="R5">
-        <v>4.591720626561999</v>
+        <v>6.78113492915</v>
       </c>
       <c r="S5">
-        <v>0.1281418133283074</v>
+        <v>0.2310252188431928</v>
       </c>
       <c r="T5">
-        <v>0.1281418133283074</v>
+        <v>0.2310252188431928</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.090014</v>
       </c>
       <c r="I6">
-        <v>0.1935618441424393</v>
+        <v>0.3108894545429426</v>
       </c>
       <c r="J6">
-        <v>0.1935618441424394</v>
+        <v>0.3108894545429427</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>16.181434</v>
       </c>
       <c r="O6">
-        <v>0.2100016587103467</v>
+        <v>0.1596166092346045</v>
       </c>
       <c r="P6">
-        <v>0.2100016587103467</v>
+        <v>0.1596166092346045</v>
       </c>
       <c r="Q6">
         <v>0.1618395111195555</v>
@@ -818,10 +818,10 @@
         <v>1.456555600076</v>
       </c>
       <c r="S6">
-        <v>0.04064830833294586</v>
+        <v>0.04962312058094021</v>
       </c>
       <c r="T6">
-        <v>0.04064830833294587</v>
+        <v>0.04962312058094022</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.090014</v>
       </c>
       <c r="I7">
-        <v>0.1935618441424393</v>
+        <v>0.3108894545429426</v>
       </c>
       <c r="J7">
-        <v>0.1935618441424394</v>
+        <v>0.3108894545429427</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,25 +865,25 @@
         <v>3.287074</v>
       </c>
       <c r="N7">
-        <v>9.861222000000001</v>
+        <v>9.861222</v>
       </c>
       <c r="O7">
-        <v>0.1279783347329392</v>
+        <v>0.09727288808579543</v>
       </c>
       <c r="P7">
-        <v>0.1279783347329392</v>
+        <v>0.09727288808579541</v>
       </c>
       <c r="Q7">
-        <v>0.09862755967866668</v>
+        <v>0.09862755967866667</v>
       </c>
       <c r="R7">
-        <v>0.8876480371080001</v>
+        <v>0.8876480371079999</v>
       </c>
       <c r="S7">
-        <v>0.0247717224811861</v>
+        <v>0.03024111511880965</v>
       </c>
       <c r="T7">
-        <v>0.0247717224811861</v>
+        <v>0.03024111511880965</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>0.040956</v>
       </c>
       <c r="I8">
-        <v>0.0880698434543265</v>
+        <v>0.1414534239147328</v>
       </c>
       <c r="J8">
-        <v>0.08806984345432652</v>
+        <v>0.1414534239147328</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.00372766666667</v>
+        <v>25.11140833333333</v>
       </c>
       <c r="N8">
-        <v>51.011183</v>
+        <v>75.334225</v>
       </c>
       <c r="O8">
-        <v>0.6620200065567142</v>
+        <v>0.7431105026796001</v>
       </c>
       <c r="P8">
-        <v>0.6620200065567141</v>
+        <v>0.7431105026796001</v>
       </c>
       <c r="Q8">
-        <v>0.2321348901053333</v>
+        <v>0.3428209465666667</v>
       </c>
       <c r="R8">
-        <v>2.089214010948</v>
+        <v>3.0853885191</v>
       </c>
       <c r="S8">
-        <v>0.05830399834108203</v>
+        <v>0.1051155249510277</v>
       </c>
       <c r="T8">
-        <v>0.05830399834108203</v>
+        <v>0.1051155249510277</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.040956</v>
       </c>
       <c r="I9">
-        <v>0.0880698434543265</v>
+        <v>0.1414534239147328</v>
       </c>
       <c r="J9">
-        <v>0.08806984345432652</v>
+        <v>0.1414534239147328</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>16.181434</v>
       </c>
       <c r="O9">
-        <v>0.2100016587103467</v>
+        <v>0.1596166092346045</v>
       </c>
       <c r="P9">
-        <v>0.2100016587103467</v>
+        <v>0.1596166092346045</v>
       </c>
       <c r="Q9">
         <v>0.07363631232266665</v>
@@ -1004,10 +1004,10 @@
         <v>0.662726810904</v>
       </c>
       <c r="S9">
-        <v>0.01849481320776913</v>
+        <v>0.02257831588989476</v>
       </c>
       <c r="T9">
-        <v>0.01849481320776914</v>
+        <v>0.02257831588989477</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.040956</v>
       </c>
       <c r="I10">
-        <v>0.0880698434543265</v>
+        <v>0.1414534239147328</v>
       </c>
       <c r="J10">
-        <v>0.08806984345432652</v>
+        <v>0.1414534239147328</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,25 +1051,25 @@
         <v>3.287074</v>
       </c>
       <c r="N10">
-        <v>9.861222000000001</v>
+        <v>9.861222</v>
       </c>
       <c r="O10">
-        <v>0.1279783347329392</v>
+        <v>0.09727288808579543</v>
       </c>
       <c r="P10">
-        <v>0.1279783347329392</v>
+        <v>0.09727288808579541</v>
       </c>
       <c r="Q10">
-        <v>0.04487513424800001</v>
+        <v>0.044875134248</v>
       </c>
       <c r="R10">
         <v>0.403876208232</v>
       </c>
       <c r="S10">
-        <v>0.01127103190547535</v>
+        <v>0.01375958307381038</v>
       </c>
       <c r="T10">
-        <v>0.01127103190547535</v>
+        <v>0.01375958307381038</v>
       </c>
     </row>
   </sheetData>
